--- a/data/trans_bre/P19C03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,19%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-5,27; 14,12</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-13,16; 2,57</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 13,31</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-13,53; 46,01</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,93; 11,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,24; 112,3</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,48%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,9; 3,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,4; 7,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,16; 0,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,39; 1,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,85; 11,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,22; 26,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,76; 2,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,14; 5,96</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,26%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,1; 6,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,47; 1,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,0; 2,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,77; 1,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,52; 25,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,71; 4,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,98; 12,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,54; 12,37</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,78%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,37; 8,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,82; 3,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 13,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,42; 9,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,69; 30,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,33; 15,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 88,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,76; 66,83</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,8%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,39; 8,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,76; 9,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,33; 9,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 7,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,66; 37,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,75; 33,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,99; 51,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,37; 43,6</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,59%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,84; 6,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,68; 8,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,71; 6,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,04; -1,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,56; 28,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,6; 39,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,07; 35,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,37; -5,49</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,11%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,93%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 4,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,85; 2,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,01; 3,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,09; -0,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,86; 13,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,54; 10,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,82; 10,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,93; -2,32</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,21%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 9,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 6,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 5,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 4,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; 35,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; 23,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,32; 25,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,38; 59,36</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,64%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,23%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 2,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 1,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 0,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 0,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,27; 9,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,64; 4,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,85; 3,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,52; 4,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>55,7%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 15,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 13,31</t>
+          <t>1,46; 14,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 101,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 112,3</t>
+          <t>7,87; 127,45</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-19,48%</t>
+          <t>-20,45%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 1,25</t>
+          <t>-11,86; 0,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,14; 5,96</t>
+          <t>-38,06; 4,62</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-20,26%</t>
+          <t>-20,61%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 1,75</t>
+          <t>-8,81; 1,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,54; 12,37</t>
+          <t>-42,07; 11,86</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-8,78</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>-25,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>12,36%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 3,79</t>
+          <t>-16,35; -1,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 9,41</t>
+          <t>-8,22; 20,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 15,52</t>
+          <t>-43,28; -4,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 66,83</t>
+          <t>-39,75; 120,03</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>6,21%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 7,76</t>
+          <t>-4,95; 8,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 43,6</t>
+          <t>-19,92; 44,97</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-29,59%</t>
+          <t>-30,12%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -1,14</t>
+          <t>-13,11; -1,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,37; -5,49</t>
+          <t>-49,82; -5,84</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-23,93%</t>
+          <t>-33,19%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,09; -0,45</t>
+          <t>-19,16; -1,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-56,93; -2,32</t>
+          <t>-71,48; -6,94</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>57,25%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,85</t>
+          <t>0,41; 9,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 59,36</t>
+          <t>3,48; 229,58</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-7,23%</t>
+          <t>-2,79%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 0,84</t>
+          <t>-3,86; 3,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 4,88</t>
+          <t>-19,69; 25,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 14,12</t>
+          <t>-5,45; 14,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 15,95</t>
+          <t>0,62; 15,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 2,57</t>
+          <t>-13,49; 2,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 14,66</t>
+          <t>1,99; 15,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 46,01</t>
+          <t>-13,36; 44,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 101,66</t>
+          <t>2,91; 103,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 11,23</t>
+          <t>-41,86; 12,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,87; 127,45</t>
+          <t>10,22; 131,97</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 3,4</t>
+          <t>-9,12; 3,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 7,05</t>
+          <t>-6,29; 7,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 0,73</t>
+          <t>-12,55; 0,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 0,99</t>
+          <t>-12,52; 0,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 11,6</t>
+          <t>-24,85; 12,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 26,07</t>
+          <t>-18,59; 26,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 2,51</t>
+          <t>-34,8; 2,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,06; 4,62</t>
+          <t>-38,51; 2,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 6,79</t>
+          <t>-9,32; 6,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 1,42</t>
+          <t>-13,55; 1,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 2,77</t>
+          <t>-10,76; 3,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 1,85</t>
+          <t>-9,45; 1,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 25,71</t>
+          <t>-25,82; 23,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 4,91</t>
+          <t>-37,02; 3,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 12,36</t>
+          <t>-34,51; 13,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,07; 11,86</t>
+          <t>-44,64; 9,76</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 8,32</t>
+          <t>-7,82; 7,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,35; -1,51</t>
+          <t>-16,19; -1,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 13,13</t>
+          <t>-0,16; 12,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 20,33</t>
+          <t>-8,36; 20,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 30,74</t>
+          <t>-21,25; 30,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,28; -4,14</t>
+          <t>-42,13; -5,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 88,84</t>
+          <t>-0,81; 84,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 120,03</t>
+          <t>-37,72; 125,3</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 8,82</t>
+          <t>-10,51; 9,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 9,05</t>
+          <t>-11,28; 7,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 9,4</t>
+          <t>-10,78; 9,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 8,04</t>
+          <t>-4,93; 8,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 37,02</t>
+          <t>-32,24; 41,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 33,98</t>
+          <t>-30,27; 28,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 51,86</t>
+          <t>-35,02; 54,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 44,97</t>
+          <t>-20,14; 46,93</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 6,55</t>
+          <t>-11,84; 5,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 8,85</t>
+          <t>-7,15; 8,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 6,2</t>
+          <t>-9,74; 6,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -1,22</t>
+          <t>-13,5; -1,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,56; 28,71</t>
+          <t>-35,47; 23,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 39,37</t>
+          <t>-23,79; 39,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 35,16</t>
+          <t>-34,76; 32,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,82; -5,84</t>
+          <t>-49,22; -4,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 4,04</t>
+          <t>-8,05; 3,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 2,79</t>
+          <t>-7,82; 3,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 3,48</t>
+          <t>-9,21; 4,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,16; -1,58</t>
+          <t>-18,76; -0,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 13,52</t>
+          <t>-21,92; 12,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 10,55</t>
+          <t>-23,68; 11,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 10,72</t>
+          <t>-23,66; 12,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-71,48; -6,94</t>
+          <t>-67,97; -3,61</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 9,93</t>
+          <t>-1,65; 10,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 6,88</t>
+          <t>-3,17; 6,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 5,92</t>
+          <t>-4,36; 5,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 9,22</t>
+          <t>0,4; 9,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 35,04</t>
+          <t>-5,01; 37,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 23,68</t>
+          <t>-9,17; 24,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 25,46</t>
+          <t>-15,54; 24,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,48; 229,58</t>
+          <t>1,5; 249,46</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,75</t>
+          <t>-2,45; 2,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,39</t>
+          <t>-3,71; 1,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,93</t>
+          <t>-3,69; 1,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,95</t>
+          <t>-3,8; 3,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 9,11</t>
+          <t>-7,47; 9,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 4,87</t>
+          <t>-11,76; 4,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 3,53</t>
+          <t>-13,26; 4,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 25,27</t>
+          <t>-19,72; 24,24</t>
         </is>
       </c>
     </row>
